--- a/biology/Botanique/Quercus_intricata/Quercus_intricata.xlsx
+++ b/biology/Botanique/Quercus_intricata/Quercus_intricata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus intricata , aussi appelé chêne nain[1], chêne complexe[2] ou chêne de broussailles Coahuila, est une espèce végétale originaire du nord du Mexique et de l'ouest du Texas.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus intricata , aussi appelé chêne nain, chêne complexe ou chêne de broussailles Coahuila, est une espèce végétale originaire du nord du Mexique et de l'ouest du Texas.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est commun dans les montagnes du désert de Chihuahua, dans les états de Coahuila, Nuevo León, Durango et Zacatecas . Aux États-Unis, il n'a été signalé que sur deux sites : l'un dans les montagnes Chisos à l' intérieur du parc national de Big Bend et l'autre près de Eagle Peak à 15 milles au sud-ouest de Van Horn.
-L'espèce préfère les chaparrals ouverts et les bois, souvent sur les pentes[2],[3]. 
+L'espèce préfère les chaparrals ouverts et les bois, souvent sur les pentes,. 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus intricata est un arbuste à feuilles persistantes qui se reproduit végétativement, produisant de grandes colonies .
-Les feuilles sont épaisses, coriaces, généralement ondulées, oblongues à ovales, jusqu'à 25 mm (1 pouce) de long. Le dessus de la feuille est vert avec des touffes éparses de petits poils bouclés; le dessous apparaît blanc ou brun à cause d'une épaisse couche de poils bouclés[2],[4],[5],[6]. 
+Les feuilles sont épaisses, coriaces, généralement ondulées, oblongues à ovales, jusqu'à 25 mm (1 pouce) de long. Le dessus de la feuille est vert avec des touffes éparses de petits poils bouclés; le dessous apparaît blanc ou brun à cause d'une épaisse couche de poils bouclés. 
 </t>
         </is>
       </c>
